--- a/babbar450.xlsx
+++ b/babbar450.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparsh\Desktop\Programs\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B359FD7D-E337-4B89-8146-C2DFE240F7DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F1149F-F99E-4067-8AF2-8B996791E559}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,18 +1854,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="65" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+    <sheetView tabSelected="1" topLeftCell="A447" zoomScale="65" workbookViewId="0">
+      <selection activeCell="C469" sqref="C469"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6">
+    <row r="1" spans="1:3" ht="25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>394</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="21">
@@ -6165,7 +6165,7 @@
         <v>395</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">
@@ -6220,7 +6220,7 @@
         <v>400</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="21">
@@ -6231,7 +6231,7 @@
         <v>273</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="21">
@@ -6253,7 +6253,7 @@
         <v>402</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="21">
@@ -6286,7 +6286,7 @@
         <v>405</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="21">
@@ -6297,7 +6297,7 @@
         <v>406</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="21">
@@ -6319,7 +6319,7 @@
         <v>408</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="21">
@@ -6341,7 +6341,7 @@
         <v>410</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="21">
@@ -6407,7 +6407,7 @@
         <v>416</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="21">
@@ -6495,7 +6495,7 @@
         <v>424</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="21">
@@ -6506,7 +6506,7 @@
         <v>425</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="21">
@@ -6550,7 +6550,7 @@
         <v>429</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="21">
@@ -6803,7 +6803,7 @@
         <v>452</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="21">
